--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value197.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value197.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.12815488771361</v>
+        <v>4.500631809234619</v>
       </c>
       <c r="B1">
-        <v>1.80668448665642</v>
+        <v>3.424493312835693</v>
       </c>
       <c r="C1">
-        <v>2.586988038351987</v>
+        <v>4.196808815002441</v>
       </c>
       <c r="D1">
-        <v>2.376762990132445</v>
+        <v>-1</v>
       </c>
       <c r="E1">
-        <v>0.6852565760553638</v>
+        <v>3.302035093307495</v>
       </c>
     </row>
   </sheetData>
